--- a/output-2/drone-polysemi/adatrans/evaluation_adatrans.xlsx
+++ b/output-2/drone-polysemi/adatrans/evaluation_adatrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,17 +568,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -588,112 +588,112 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862716</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.838192</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888717</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836538</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.820755</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852941</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.680556</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.671233</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.690141</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861702</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.964286</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.778846</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.90566</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888889</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.923077</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.977918</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.987261</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.96875</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.826498</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.708108</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -720,112 +720,112 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.856485</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.85061</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.862442</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.930693</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.921569</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.313043</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.409091</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.918367</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.978261</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.865385</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.925816</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.881356</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.864686</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.766082</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -852,67 +852,67 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.857578</t>
+          <t>0.856485</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.845345</t>
+          <t>0.85061</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.87017</t>
+          <t>0.862442</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.923858</t>
+          <t>0.930693</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.957895</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.892157</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.347107</t>
+          <t>0.313043</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.409091</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.295775</t>
+          <t>0.253521</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.88785</t>
+          <t>0.918367</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.863636</t>
+          <t>0.978261</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.913462</t>
+          <t>0.865385</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.936937</t>
+          <t>0.925816</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.901734</t>
+          <t>0.881356</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.879195</t>
+          <t>0.864686</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.789157</t>
+          <t>0.766082</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -964,17 +964,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -984,119 +984,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857578</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845345</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87017</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.923858</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957895</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.892157</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.347107</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.295775</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88785</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863636</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913462</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.936937</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901734</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879195</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.789157</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1360,17 +1360,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1380,112 +1380,112 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.915589</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901198</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.930448</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970588</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970588</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970588</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.732026</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.682927</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788732</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888889</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.988235</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.966887</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.996865</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1512,112 +1512,112 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.845794</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.852433</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.839258</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.89899</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.927083</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.872549</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.403226</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.471698</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.352113</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.835165</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.974359</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.730769</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.911565</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.971014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.858974</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.936937</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.901734</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.866667</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0.77381</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0.984848</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1644,124 +1644,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.895659</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882883</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.90881</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.951923</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.933962</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970588</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.652778</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.643836</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879581</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.965517</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913907</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945205</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1776,119 +1776,119 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.869767</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.872473</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.867079</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.959184</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.921569</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.496124</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.551724</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.450704</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.831579</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.918605</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.759615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.968944</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.962963</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.870432</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.775148</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2040,107 +2040,107 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.908954</t>
+          <t>0.871118</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.88563</t>
+          <t>0.875195</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.933539</t>
+          <t>0.867079</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.951923</t>
+          <t>0.925373</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.933962</t>
+          <t>0.939394</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.970588</t>
+          <t>0.911765</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.701299</t>
+          <t>0.527132</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.650602</t>
+          <t>0.586207</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.760563</t>
+          <t>0.478873</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>0.847826</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.978723</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>0.884615</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.945946</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.897436</t>
-        </is>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.981366</t>
+          <t>0.971963</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.975309</t>
+          <t>0.968944</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>0.856209</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>0.752874</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2152,17 +2152,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2172,92 +2172,92 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.908133</t>
+          <t>0.876649</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.885463</t>
+          <t>0.880062</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.931994</t>
+          <t>0.873261</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.961165</t>
+          <t>0.949495</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.951923</t>
+          <t>0.979167</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.970588</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.717949</t>
+          <t>0.522388</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.658824</t>
+          <t>0.555556</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.788732</t>
+          <t>0.492958</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.924623</t>
+          <t>0.864865</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.968421</t>
+          <t>0.987654</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
+          <t>0.769231</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>0.884615</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.958333</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.884615</t>
-        </is>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.987342</t>
+          <t>0.962963</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.95122</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2309,67 +2309,67 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.906227</t>
+          <t>0.88172</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.880466</t>
+          <t>0.876336</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.933539</t>
+          <t>0.887172</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>0.936585</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>0.932039</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.717949</t>
+          <t>0.530303</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.658824</t>
+          <t>0.57377</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.788732</t>
+          <t>0.492958</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.884211</t>
+          <t>0.885417</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.976744</t>
+          <t>0.965909</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.807692</t>
+          <t>0.817308</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.966887</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2379,44 +2379,44 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.935897</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>0.975309</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>0.963415</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0.839744</t>
+          <t>0.863787</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0.727778</t>
+          <t>0.769231</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2548,12 +2548,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2568,112 +2568,112 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879444</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879444</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879444</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939394</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.96875</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.911765</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.530303</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.57377</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.492958</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858586</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.904255</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.817308</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.981132</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.987342</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879195</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.789157</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2700,129 +2700,129 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.870553</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.853116</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.888717</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.995074</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.639456</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.618421</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.84153</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.974684</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.740385</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.869048</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.811111</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.935897</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.913043</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.907407</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0.91875</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0.872483</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0.783133</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0.984848</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2832,107 +2832,107 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.880916</t>
+          <t>0.903422</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.870287</t>
+          <t>0.889222</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.891808</t>
+          <t>0.918083</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.944724</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.969072</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.921569</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.522388</t>
+          <t>0.639456</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.555556</t>
+          <t>0.618421</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.492958</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>0.907216</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.978723</t>
+          <t>0.977778</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
+          <t>0.846154</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>0.884615</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.938776</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.884615</t>
-        </is>
-      </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.945455</t>
+          <t>0.984326</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.917647</t>
+          <t>0.987421</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.98125</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0.86755</t>
+          <t>0.870432</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0.770588</t>
+          <t>0.775148</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2964,92 +2964,92 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.847059</t>
+          <t>0.845794</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.859873</t>
+          <t>0.852433</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.834621</t>
+          <t>0.839258</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.939394</t>
+          <t>0.89899</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.96875</t>
+          <t>0.927083</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.911765</t>
+          <t>0.872549</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.313043</t>
+          <t>0.403226</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.409091</t>
+          <t>0.471698</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>0.352113</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.783626</t>
+          <t>0.835165</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.974359</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.644231</t>
+          <t>0.730769</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>0.911565</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.971014</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>0.858974</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.931343</t>
+          <t>0.936937</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.891429</t>
+          <t>0.901734</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3059,17 +3059,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0.864686</t>
+          <t>0.866667</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0.766082</t>
+          <t>0.77381</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3096,112 +3096,112 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.910198</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.896552</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.924266</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985507</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971429</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.666667</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.644737</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.690141</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907216</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.977778</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846154</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990596</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.993711</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -3228,97 +3228,97 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.867601</t>
+          <t>0.869767</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.874411</t>
+          <t>0.872473</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.860896</t>
+          <t>0.867079</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.939394</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.96875</t>
+          <t>0.959184</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.911765</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.522388</t>
+          <t>0.496124</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.555556</t>
+          <t>0.551724</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.492958</t>
+          <t>0.450704</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.823529</t>
+          <t>0.831579</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.927711</t>
+          <t>0.918605</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.740385</t>
+          <t>0.759615</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.911565</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.971014</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.858974</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.933754</t>
+          <t>0.968944</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.942675</t>
+          <t>0.962963</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0.925</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3360,34 +3360,34 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.883721</t>
+          <t>0.867488</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.88647</t>
+          <t>0.864823</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.880989</t>
+          <t>0.87017</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>0.930693</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.959184</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>0.921569</t>
@@ -3410,17 +3410,17 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.885417</t>
+          <t>0.847826</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.965909</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.817308</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.981132</t>
+          <t>0.945455</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.987342</t>
+          <t>0.917647</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0.870432</t>
+          <t>0.864686</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>0.775148</t>
+          <t>0.766082</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3492,112 +3492,112 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.829953</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.837795</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.822257</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.93401</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.968421</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.313043</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.409091</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.775956</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.898734</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.682692</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.923077</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.923077</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.923077</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.879257</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.871166</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0.8875</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0.86755</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>0.770588</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3624,32 +3624,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.889901</t>
+          <t>0.908954</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.874627</t>
+          <t>0.88563</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.905719</t>
+          <t>0.933539</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.965854</t>
+          <t>0.951923</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.961165</t>
+          <t>0.933962</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3659,62 +3659,62 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.630872</t>
+          <t>0.701299</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.602564</t>
+          <t>0.650602</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.84153</t>
+          <t>0.929293</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.974684</t>
+          <t>0.978723</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.740385</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.924051</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.935897</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.98452</t>
+          <t>0.981366</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.97546</t>
+          <t>0.975309</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3756,124 +3756,124 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.870606</t>
+          <t>0.907029</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.843478</t>
+          <t>0.887574</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.899536</t>
+          <t>0.927357</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.94686</t>
+          <t>0.952381</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.933333</t>
+          <t>0.925926</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.960784</t>
+          <t>0.980392</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>0.657718</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>0.628205</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>0.690141</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.814815</t>
+          <t>0.929293</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.905882</t>
+          <t>0.978723</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.740385</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.901235</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.869048</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.935897</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.981013</t>
+          <t>0.993711</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.99359</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0.96875</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0.82243</t>
+          <t>0.873333</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0.698413</t>
+          <t>0.779762</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3888,112 +3888,112 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.908133</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885463</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931994</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.961165</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.951923</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970588</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.717949</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.658824</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788732</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.924623</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.968421</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.987342</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870432</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775148</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4020,112 +4020,112 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.906227</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880466</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.933539</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.717949</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.658824</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788732</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884211</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.976744</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.966887</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839744</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.727778</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4152,124 +4152,124 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.888204</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.886154</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.890263</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.944724</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.969072</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.921569</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.643836</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.626667</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.854054</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.975309</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.759615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.981132</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.987342</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4284,124 +4284,124 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.85802</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.852134</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.863988</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.912621</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.903846</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.921569</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.409836</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.490196</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.352113</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.857143</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.913043</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.807692</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.945455</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.917647</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0.86755</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>0.770588</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4421,107 +4421,107 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870553</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853116</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888717</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.995074</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.639456</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.618421</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84153</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.974684</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.740385</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869048</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.811111</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913043</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907407</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.91875</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872483</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.783133</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -4538,120 +4538,3156 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.880916</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.870287</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.891808</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.944724</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.969072</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.921569</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.522388</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.555556</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0.492958</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.929293</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.978723</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0.945455</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>0.917647</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>0.86755</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>0.770588</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.890731</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.869118</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.913447</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.985366</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.980583</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.601307</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.560976</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0.647887</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.861702</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.964286</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.778846</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.906832</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.879518</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>0.935897</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.990654</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>0.987578</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.847059</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.859873</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.834621</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.939394</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.96875</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.911765</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.313043</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.409091</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0.253521</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.783626</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.644231</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.931343</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0.891429</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>0.864686</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>0.766082</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>unscaled</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>adatrans</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.903323</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.883309</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.924266</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.970874</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.961538</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.980392</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.635135</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.61039</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.924623</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.968421</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.927152</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.958904</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.987578</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0.981481</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>0.872483</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>0.783133</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>0.984848</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.870791</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.88254</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.859351</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.978723</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.492308</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.542373</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0.450704</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.846154</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.987179</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.740385</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.913907</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0.945205</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.971963</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0.968944</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>0.875421</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>0.787879</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0.984848</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.896183</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.88537</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.907264</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.652778</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.643836</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.86631</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.975904</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.778846</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.903226</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.909091</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0.984326</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0.987421</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0.98125</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.867601</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.874411</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.860896</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.939394</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.96875</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.911765</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.522388</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.555556</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0.492958</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.823529</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.927711</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.740385</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.911565</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.971014</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0.858974</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0.933754</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0.942675</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>0.925</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>0.883721</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>0.88647</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>0.880989</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.959184</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.921569</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.530303</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.57377</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0.492958</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.885417</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.965909</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.817308</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.981132</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0.987342</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.829953</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.837795</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.822257</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.93401</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0.968421</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.313043</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.409091</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0.253521</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.775956</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.898734</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.682692</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0.923077</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0.923077</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>0.923077</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>0.879257</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>0.871166</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>0.86755</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>0.770588</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.889901</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.874627</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.905719</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.965854</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.961165</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.970588</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.630872</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.602564</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.84153</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.974684</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.740385</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0.924051</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>0.935897</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>0.98452</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>0.97546</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.909091</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.898792</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.919629</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.652778</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.643836</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.907216</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.977778</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0.846154</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>0.990654</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>0.987578</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.905488</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.893233</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.918083</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.970874</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0.961538</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.980392</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.652778</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.643836</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.902564</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0.967033</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.846154</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0.945946</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.870606</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.843478</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.899536</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.94686</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.933333</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.960784</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.814815</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.905882</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.740385</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0.901235</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>0.869048</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>0.935897</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>0.981013</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>0.99359</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>0.96875</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>0.82243</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>0.698413</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.888204</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.886154</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.890263</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>0.944724</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>0.969072</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>0.921569</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.643836</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.626667</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.854054</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0.975309</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.759615</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>0.981132</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>0.987342</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.876289</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.919629</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.662162</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.636364</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0.690141</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.871795</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0.934066</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0.817308</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>0.869565</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0.843373</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>0.996865</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.85802</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.852134</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.863988</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.912621</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0.903846</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.921569</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0.409836</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.490196</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0.352113</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.857143</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.913043</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0.807692</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>0.945455</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>0.917647</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>0.86755</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>0.770588</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.883721</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.88647</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.880989</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.944724</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.969072</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.921569</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>0.530303</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>0.57377</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>0.492958</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>0.884211</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>0.976744</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>0.807692</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>0.938776</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>0.884615</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>0.981132</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>0.987342</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>0.975</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="X55" t="inlineStr">
         <is>
           <t>0.868421</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>0.767442</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/output-2/drone-polysemi/adatrans/evaluation_adatrans.xlsx
+++ b/output-2/drone-polysemi/adatrans/evaluation_adatrans.xlsx
@@ -725,107 +725,107 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885345</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870149</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901082</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945813</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.950495</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.679245</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.613636</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846154</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.987179</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.740385</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913907</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945205</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.86755</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.770588</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -1121,107 +1121,107 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856492</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.841791</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871716</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.936585</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.932039</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.618421</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.580247</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.795918</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847826</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913183</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.940397</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8875</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859016</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.757225</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -1253,107 +1253,107 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861492</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848576</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.874807</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92823</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.906542</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95098</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.604317</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.617647</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.591549</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884211</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.976744</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864198</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833333</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.916129</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.946667</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8875</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861842</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.761628</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -1517,107 +1517,107 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885865</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866864</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.905719</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985222</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990099</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980392</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.630872</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.602564</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849741</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921348</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788462</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847896</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.740113</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -1781,107 +1781,107 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885865</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866864</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.905719</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.687898</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.627907</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863388</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.759615</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.932432</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985714</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975309</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.963415</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859935</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.754286</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1913,107 +1913,107 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87738</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864865</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890263</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.952381</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.925926</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980392</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.559441</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.555556</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.56338</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846154</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.987179</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.740385</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.954248</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.973333</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.954128</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.934132</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872483</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.783133</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -2441,107 +2441,107 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901163</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85048</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958269</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.908213</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.895238</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.729282</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929577</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.976077</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971429</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980769</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921053</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.963415</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.940476</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869565</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.778443</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -2705,107 +2705,107 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.86858</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849335</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888717</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.926829</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92233</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931373</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.633094</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.647059</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.619718</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.895899</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.904459</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8875</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.830189</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.709677</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -3497,107 +3497,107 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880419</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852388</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.910355</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890995</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862385</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.642857</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.556701</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858639</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.942529</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788462</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.873333</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.779762</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -4157,107 +4157,107 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.923192</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891931</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.956723</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.943396</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.909091</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980392</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.829268</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.731183</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957746</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.928571</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.98913</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877076</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.781065</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -4289,107 +4289,107 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890869</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857143</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.927357</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.91866</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897196</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.693333</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.658228</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.732394</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.989583</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913462</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.934132</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.896552</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859016</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.757225</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -4685,107 +4685,107 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87519</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862069</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888717</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.933333</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907407</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.960784</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.613139</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.636364</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.591549</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855769</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855769</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855769</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.966887</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.925081</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.965986</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8875</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870432</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775148</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -5345,107 +5345,107 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891892</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867153</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.918083</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.959184</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.710526</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.666667</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.89899</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.946809</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855769</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.965944</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957055</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845161</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.735955</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -6137,107 +6137,107 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.896603</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858557</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938176</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.942308</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.924528</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.960784</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.728395</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.648352</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.830986</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.911765</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.894231</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.968944</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.962963</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847896</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.740113</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -6665,107 +6665,107 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.875283</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856509</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8949</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980583</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971154</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.683544</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.62069</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.875676</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.778846</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.925081</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.965986</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8875</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.821317</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.700535</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -6797,107 +6797,107 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888889</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869822</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.90881</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.937198</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92381</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95098</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.683544</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.62069</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.821053</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.906977</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975309</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.963415</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885135</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.79878</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -6929,107 +6929,107 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.892857</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860832</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.927357</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.908213</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.895238</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.758621</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.640777</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929577</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865979</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.933333</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.932432</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985714</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870432</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775148</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -7457,107 +7457,107 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877351</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854839</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901082</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.903846</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.886792</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.649007</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.6125</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.690141</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88172</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788462</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.963636</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935294</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846906</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.742857</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
